--- a/src/test/resources/testdata/data.xlsx
+++ b/src/test/resources/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Testcase No</t>
   </si>
@@ -38,52 +38,49 @@
     <t>TestCaseName</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>password_value</t>
-  </si>
-  <si>
-    <t>loginButton_type</t>
-  </si>
-  <si>
-    <t>loginButton_value</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Message</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>SearchFlight</t>
-  </si>
-  <si>
-    <t>Round trip</t>
-  </si>
-  <si>
-    <t>YYZ</t>
-  </si>
-  <si>
-    <t>CCJ</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>passwordField</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//button[@type='submit']</t>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Binoy vishnu</t>
+  </si>
+  <si>
+    <t>Vellodan</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Brampton</t>
+  </si>
+  <si>
+    <t>The SDET View</t>
   </si>
   <si>
     <t>No</t>
@@ -131,18 +128,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,28 +597,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -756,7 +753,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1236,7 +1238,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5"/>
@@ -1298,20 +1300,20 @@
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
@@ -1319,60 +1321,63 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="abc@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
